--- a/Data/REPORTE DE OBRAS y SERVICIOS 311225.xlsx
+++ b/Data/REPORTE DE OBRAS y SERVICIOS 311225.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aranc\Documents\Portal_Transparencia_Presupustaria\Semovinfra\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aranc\Documents\Portal_Transparencia_Presupustaria_V2\Semovinfra\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0212A852-E1D1-458D-A732-91A837183BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBF34E6-1682-4CFD-A7EC-9DB3A8D5E03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="647" activeTab="2" xr2:uid="{F5295227-05FF-4589-99AF-E3C56D0C1C3C}"/>
+    <workbookView xWindow="-28920" yWindow="-9630" windowWidth="29040" windowHeight="16440" tabRatio="647" activeTab="2" xr2:uid="{F5295227-05FF-4589-99AF-E3C56D0C1C3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="SERVICIOS" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'OBRA PUBLICA'!$A$6:$U$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'OBRA PUBLICA'!$A$6:$V$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'OBRA PUBLICA'!$A$1:$W$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">SERVICIOS!$A$1:$M$20</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'OBRA PUBLICA'!$1:$6</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="289">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -885,12 +885,6 @@
     <t>SAN BALTAZAR TETELA</t>
   </si>
   <si>
-    <t>17 JUNTAS AUXILIARES</t>
-  </si>
-  <si>
-    <t>DIVERSAS JUNTAS AUXILIARES</t>
-  </si>
-  <si>
     <t>IGNACIO ZARAGOZA</t>
   </si>
   <si>
@@ -933,7 +927,7 @@
     <t>DIVERSAS JUNTAS AUXILARES</t>
   </si>
   <si>
-    <t>DIVRESAS JUNTAS AUXILIARES</t>
+    <t>CANTIDAD DE OBRAS</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1254,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1452,16 +1446,19 @@
     <xf numFmtId="4" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5925,6 +5922,28 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="4">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{CE88EEEE-A04C-4240-BE41-BF03685816A1}">
+  <we:reference id="wa200009404" version="1.0.0.5" store="es-ES" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200009404" version="1.0.0.5" store="WA200009404" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="Office.AutoShowTaskpaneWithDocument" value="true"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F5D0EB-BDFF-4E9A-91AC-1403D9E52313}">
   <sheetPr codeName="Hoja1"/>
@@ -5954,22 +5973,22 @@
         <v>263</v>
       </c>
       <c r="C3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" t="s">
         <v>280</v>
       </c>
-      <c r="D3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>281</v>
       </c>
-      <c r="F3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>283</v>
-      </c>
-      <c r="H3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -6067,7 +6086,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -6865,7 +6884,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="66" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -7197,7 +7216,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="66" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -7373,8 +7392,8 @@
   </sheetPr>
   <dimension ref="A1:W77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F67" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="V67" sqref="V67"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7397,10 +7416,11 @@
     <col min="20" max="20" width="17.28515625" style="5" customWidth="1"/>
     <col min="21" max="21" width="17" style="10" customWidth="1"/>
     <col min="22" max="22" width="26.7109375" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="5"/>
+    <col min="23" max="23" width="39" style="5" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -7421,7 +7441,7 @@
       <c r="S1" s="9"/>
       <c r="U1" s="9"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -7444,7 +7464,7 @@
       <c r="S2" s="9"/>
       <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -7467,7 +7487,7 @@
       <c r="S3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7490,7 +7510,7 @@
       <c r="S4" s="12"/>
       <c r="U4" s="12"/>
     </row>
-    <row r="5" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H5" s="2"/>
       <c r="I5" s="46" t="s">
         <v>64</v>
@@ -7498,7 +7518,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="45"/>
     </row>
-    <row r="6" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>243</v>
       </c>
@@ -7565,8 +7585,11 @@
       <c r="V6" s="44" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="e">
         <f>A6+1</f>
         <v>#VALUE!</v>
@@ -7630,7 +7653,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="e">
         <f>A7+1</f>
         <v>#VALUE!</v>
@@ -7698,7 +7721,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="e">
         <f>A8+1</f>
         <v>#VALUE!</v>
@@ -7766,7 +7789,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="e">
         <f>A9+1</f>
         <v>#VALUE!</v>
@@ -7834,7 +7857,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="e">
         <f>+A10+1</f>
         <v>#VALUE!</v>
@@ -7899,10 +7922,13 @@
         <v>1</v>
       </c>
       <c r="V11" s="50" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="W11" s="75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="e">
         <f t="shared" ref="A12:A18" si="3">A11+1</f>
         <v>#VALUE!</v>
@@ -7967,10 +7993,10 @@
         <v>1</v>
       </c>
       <c r="V12" s="50" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
@@ -8038,7 +8064,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
@@ -8106,7 +8132,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="135.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
@@ -8174,7 +8200,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
@@ -8238,7 +8264,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
@@ -8299,10 +8325,10 @@
         <v>1</v>
       </c>
       <c r="V17" s="50" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="135.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
@@ -8372,7 +8398,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="e">
         <f>A16+1</f>
         <v>#VALUE!</v>
@@ -8442,7 +8468,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="150.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="e">
         <f t="shared" ref="A20:A46" si="5">A19+1</f>
         <v>#VALUE!</v>
@@ -8509,10 +8535,10 @@
         <v>1</v>
       </c>
       <c r="V20" s="50" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -8582,7 +8608,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="120.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -8652,7 +8678,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="135.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -8722,7 +8748,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="180.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -8789,10 +8815,10 @@
         <v>1</v>
       </c>
       <c r="V24" s="50" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="120.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -8862,7 +8888,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="150.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -8929,10 +8955,10 @@
         <v>1</v>
       </c>
       <c r="V26" s="50" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -9000,7 +9026,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -9068,7 +9094,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -9138,7 +9164,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -9210,7 +9236,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -9282,7 +9308,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -9354,7 +9380,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -9426,7 +9452,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -9498,7 +9524,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -9570,7 +9596,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -9638,7 +9664,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="51" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -9706,7 +9732,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -9771,10 +9797,13 @@
         <v>1</v>
       </c>
       <c r="V38" s="50" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="W38" s="75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -9839,10 +9868,13 @@
         <v>0.51529999999999998</v>
       </c>
       <c r="V39" s="50" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="W39" s="75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -9907,10 +9939,13 @@
         <v>0.63</v>
       </c>
       <c r="V40" s="50" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="W40" s="75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="93" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -9982,7 +10017,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -10050,7 +10085,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -10117,7 +10152,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -10189,7 +10224,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -10257,7 +10292,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -10319,7 +10354,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="120.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="e">
         <f>A45+1</f>
         <v>#VALUE!</v>
@@ -10391,7 +10426,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="e">
         <f t="shared" ref="A48:A62" si="9">A47+1</f>
         <v>#VALUE!</v>
@@ -10459,7 +10494,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
@@ -10527,7 +10562,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
@@ -10599,7 +10634,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
@@ -10671,7 +10706,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
@@ -10808,10 +10843,13 @@
         <v>0.84</v>
       </c>
       <c r="V53" s="50" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="W53" s="75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
@@ -10883,7 +10921,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
@@ -11020,13 +11058,13 @@
         <v>1</v>
       </c>
       <c r="V56" s="50" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="W56" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
@@ -11159,10 +11197,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="V58" s="50" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
@@ -11230,7 +11268,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
@@ -11363,10 +11401,10 @@
         <v>0.63219999999999998</v>
       </c>
       <c r="V61" s="50" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="180.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="180.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
@@ -11500,7 +11538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <f t="shared" ref="A64:A73" si="10">A63+1</f>
         <v>2</v>
@@ -11633,7 +11671,7 @@
         <v>1</v>
       </c>
       <c r="V65" s="50" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -11701,10 +11739,10 @@
         <v>1</v>
       </c>
       <c r="V66" s="50" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="57" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <f t="shared" si="10"/>
         <v>5</v>
@@ -11772,7 +11810,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -11905,10 +11943,10 @@
         <v>1</v>
       </c>
       <c r="V69" s="50" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <f t="shared" si="10"/>
         <v>8</v>
@@ -12041,7 +12079,7 @@
         <v>0.1701</v>
       </c>
       <c r="V71" s="50" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -12109,10 +12147,10 @@
         <v>0.64749999999999996</v>
       </c>
       <c r="V72" s="50" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -12180,7 +12218,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="75.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7">
         <v>2025</v>
@@ -12240,10 +12278,10 @@
       </c>
       <c r="U74" s="50"/>
       <c r="V74" s="50" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7">
         <v>2025</v>
@@ -12303,10 +12341,10 @@
       </c>
       <c r="U75" s="50"/>
       <c r="V75" s="50" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7">
         <v>2025</v>
@@ -12377,10 +12415,10 @@
       <c r="S77" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:U76" xr:uid="{B62CD074-07EC-4522-844C-EA1E12E77BC8}">
-    <filterColumn colId="1">
+  <autoFilter ref="A6:V76" xr:uid="{B62CD074-07EC-4522-844C-EA1E12E77BC8}">
+    <filterColumn colId="21">
       <filters>
-        <filter val="2025"/>
+        <filter val="DIVERSAS JUNTAS AUXILARES"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -12492,7 +12530,7 @@
       <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="71" t="s">
         <v>51</v>
       </c>
       <c r="G5" s="69" t="s">
@@ -12520,7 +12558,7 @@
       <c r="C6" s="70"/>
       <c r="D6" s="70"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="74"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="70"/>
       <c r="H6" s="70"/>
       <c r="I6" s="70"/>
@@ -13006,10 +13044,10 @@
       <c r="A19" s="28"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="E19" s="72"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="16">
         <f>SUM(F7:F18)</f>
         <v>310546284.34999996</v>
@@ -13095,17 +13133,17 @@
     <protectedRange sqref="I14" name="Rango28"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="3.937007874015748E-2" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="35" fitToHeight="2" orientation="landscape" r:id="rId1"/>
